--- a/data/epsp/demo/1x(7+2).xlsx
+++ b/data/epsp/demo/1x(7+2).xlsx
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +62,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,13 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -424,16 +415,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="10.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -481,7 +472,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -490,13 +481,13 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -513,7 +504,7 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -522,13 +513,13 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -545,7 +536,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="1">
@@ -554,13 +545,13 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -577,7 +568,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="1">
@@ -586,13 +577,13 @@
       <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -609,7 +600,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="1">
@@ -618,13 +609,13 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
     </row>
